--- a/icd_files/69758.xlsx
+++ b/icd_files/69758.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B8B1D-5331-40B4-AF0A-E391B8BB2C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111A7C8F-2434-4669-A872-6DC7380EB4ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="579">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -996,6 +996,12 @@
     <t>02-20</t>
   </si>
   <si>
+    <t>02-22</t>
+  </si>
+  <si>
+    <t>02-23</t>
+  </si>
+  <si>
     <t>02-24</t>
   </si>
   <si>
@@ -1011,6 +1017,9 @@
     <t>03-02</t>
   </si>
   <si>
+    <t>03-03</t>
+  </si>
+  <si>
     <t>03-04</t>
   </si>
   <si>
@@ -1023,6 +1032,15 @@
     <t>03-09</t>
   </si>
   <si>
+    <t>03-10</t>
+  </si>
+  <si>
+    <t>03-11</t>
+  </si>
+  <si>
+    <t>03-17</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -1035,12 +1053,171 @@
     <t>5% Dextrose</t>
   </si>
   <si>
+    <t>Insulin Human Regular</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
   </si>
   <si>
+    <t>Meropenem</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Prochlorperazine</t>
+  </si>
+  <si>
+    <t>Lidocaine Viscous 2%</t>
+  </si>
+  <si>
+    <t>Mupirocin Nasal Ointment 2%</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
     <t>Insulin</t>
   </si>
   <si>
+    <t>Maalox/Diphenhydramine/Lidocaine</t>
+  </si>
+  <si>
+    <t>Potassium Chloride Replacement (Oncology)</t>
+  </si>
+  <si>
+    <t>Heparin Flush (10 units/ml)</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Voriconazole</t>
+  </si>
+  <si>
+    <t>Piperacillin-Tazobactam</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Sterile Water</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Acetylcysteine (IV)</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Calcium Replacement (Oncology)</t>
+  </si>
+  <si>
+    <t>Syringe (Chemo)</t>
+  </si>
+  <si>
+    <t>Cytarabine</t>
+  </si>
+  <si>
+    <t>sodium bic</t>
+  </si>
+  <si>
+    <t>Hydroxyurea Suspension</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Levofloxacin</t>
+  </si>
+  <si>
+    <t>Micafungin</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OxycoDONE (Immediate Release) </t>
+  </si>
+  <si>
+    <t>Azithromycin</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
+    <t>Sodium Bicarbonate</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>DAUNOrubicin</t>
+  </si>
+  <si>
+    <t>1/2 NS</t>
+  </si>
+  <si>
+    <t>Hydroxyurea</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>GlyBURIDE</t>
+  </si>
+  <si>
+    <t>Lidocaine 2%</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>Gelclair</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
@@ -1050,15 +1227,48 @@
     <t>100 BAG</t>
   </si>
   <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
     <t>12 VIAL</t>
   </si>
   <si>
-    <t>1000 BAG</t>
+    <t>12.5 TAB</t>
   </si>
   <si>
     <t>100 mL</t>
   </si>
   <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>300 TAB</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>3000 SYR</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
     <t>04:56</t>
   </si>
   <si>
@@ -1077,9 +1287,54 @@
     <t>20:17</t>
   </si>
   <si>
+    <t>4-8 VIAL</t>
+  </si>
+  <si>
+    <t>0.5-2 mL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
     <t>500 mL</t>
   </si>
   <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>36 mL</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>2000 SYR</t>
+  </si>
+  <si>
+    <t>50 VIAL</t>
+  </si>
+  <si>
+    <t>30 mL</t>
+  </si>
+  <si>
+    <t>180 mL</t>
+  </si>
+  <si>
+    <t>1000 SYR</t>
+  </si>
+  <si>
+    <t>60 PKT</t>
+  </si>
+  <si>
+    <t>40-60 BAG</t>
+  </si>
+  <si>
+    <t>50-150 mL</t>
+  </si>
+  <si>
+    <t>50-100 mL</t>
+  </si>
+  <si>
     <t>04:27</t>
   </si>
   <si>
@@ -1092,7 +1347,16 @@
     <t>20:00</t>
   </si>
   <si>
-    <t>1000 mL</t>
+    <t>1500 VIAL</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>50 SYR</t>
+  </si>
+  <si>
+    <t>750 BAG</t>
   </si>
   <si>
     <t>04:00</t>
@@ -1101,15 +1365,33 @@
     <t>08:30</t>
   </si>
   <si>
+    <t>4.5 VIAL</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
     <t>08:21</t>
   </si>
   <si>
     <t>16:39</t>
   </si>
   <si>
+    <t>1250 VIAL</t>
+  </si>
+  <si>
+    <t>4.5 BAG</t>
+  </si>
+  <si>
     <t>07:00</t>
   </si>
   <si>
+    <t>12 mL</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
     <t>00:42</t>
   </si>
   <si>
@@ -1120,6 +1402,90 @@
   </si>
   <si>
     <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>15-30 BTL</t>
+  </si>
+  <si>
+    <t>60 TAB</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>60 mL</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>2-4 BAG</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>500 VIAL</t>
+  </si>
+  <si>
+    <t>20 UDCUP</t>
+  </si>
+  <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
+    <t>2.25 BAG</t>
+  </si>
+  <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>975 SUPP</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
+    <t>0.5-1 mL</t>
+  </si>
+  <si>
+    <t>7 mL</t>
+  </si>
+  <si>
+    <t>25 mL</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>30 VIAL</t>
+  </si>
+  <si>
+    <t>15 PKT</t>
+  </si>
+  <si>
+    <t>15 VIAL</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>2.5 TAB</t>
+  </si>
+  <si>
+    <t>1.25 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -5192,7 +5558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000000-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6832,7 +7198,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000001-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8472,7 +8838,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000002-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10301,7 +10667,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000003-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12121,7 +12487,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000004-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13485,7 +13851,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000005-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14475,7 +14841,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000006-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15465,7 +15831,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000007-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16527,7 +16893,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000008-2ED3-4873-A841-E2D04361AEDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16970,7 +17336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896443D5-4FED-48A6-9B59-9805AD75B93E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72068F6-FACB-4F3E-ADB5-553158D29C9E}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -16995,7 +17361,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>366</v>
+        <v>488</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -17008,7 +17374,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>367</v>
+        <v>489</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -17021,7 +17387,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>368</v>
+        <v>490</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -17034,7 +17400,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>369</v>
+        <v>491</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -17047,27 +17413,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>370</v>
+        <v>492</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>371</v>
+        <v>493</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>372</v>
+        <v>494</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>373</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>374</v>
+        <v>496</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -17095,7 +17461,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>375</v>
+        <v>497</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -17123,11 +17489,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>376</v>
+        <v>498</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -17150,7 +17516,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17187,7 +17553,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -17210,14 +17576,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>378</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -17240,14 +17606,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -17270,14 +17636,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -17300,14 +17666,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>382</v>
+        <v>504</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -17330,16 +17696,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>382</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>383</v>
+        <v>505</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -17362,14 +17728,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -17392,10 +17758,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -17403,7 +17769,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>387</v>
+        <v>509</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -17415,7 +17781,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>388</v>
+        <v>510</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -17438,7 +17804,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>388</v>
+        <v>510</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -17454,11 +17820,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>389</v>
+        <v>511</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -17481,7 +17847,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -17499,7 +17865,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -17522,7 +17888,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -17541,7 +17907,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>392</v>
+        <v>514</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -17564,10 +17930,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>392</v>
+        <v>514</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>393</v>
+        <v>515</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -17585,7 +17951,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>394</v>
+        <v>516</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -17608,52 +17974,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>394</v>
+        <v>516</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>396</v>
+        <v>518</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>397</v>
+        <v>519</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>398</v>
+        <v>520</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>399</v>
+        <v>521</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>407</v>
+        <v>529</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -17676,53 +18042,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>415</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -17745,43 +18111,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -17789,7 +18155,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>396</v>
+        <v>518</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -17812,43 +18178,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>396</v>
+        <v>518</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -17856,7 +18222,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>397</v>
+        <v>519</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -17879,43 +18245,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>397</v>
+        <v>519</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -17923,7 +18289,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>398</v>
+        <v>520</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -17946,43 +18312,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>398</v>
+        <v>520</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -17990,7 +18356,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>399</v>
+        <v>521</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -18013,43 +18379,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>399</v>
+        <v>521</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -18057,7 +18423,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -18080,43 +18446,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -18124,7 +18490,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -18147,43 +18513,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -18191,7 +18557,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -18214,43 +18580,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -18258,7 +18624,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -18281,43 +18647,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -18325,7 +18691,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -18348,43 +18714,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -18392,7 +18758,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -18415,43 +18781,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -18459,7 +18825,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -18482,7 +18848,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -18495,10 +18861,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -18506,7 +18872,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -18529,14 +18895,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>417</v>
+        <v>539</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -18551,7 +18917,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -18574,7 +18940,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -18594,7 +18960,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>419</v>
+        <v>541</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -18617,7 +18983,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>419</v>
+        <v>541</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -18637,7 +19003,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -18660,7 +19026,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -18678,11 +19044,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>421</v>
+        <v>543</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>422</v>
+        <v>544</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -18705,14 +19071,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>422</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -18735,14 +19101,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -18765,14 +19131,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -18795,14 +19161,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -18825,14 +19191,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -18855,14 +19221,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -18885,10 +19251,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>423</v>
+        <v>545</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -18905,7 +19271,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -18928,7 +19294,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -18946,7 +19312,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -18969,7 +19335,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -18987,7 +19353,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>419</v>
+        <v>541</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -19010,14 +19376,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>419</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -19040,14 +19406,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>424</v>
+        <v>546</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -19070,24 +19436,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>424</v>
+        <v>546</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>425</v>
+        <v>547</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>426</v>
+        <v>548</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>427</v>
+        <v>549</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -19110,7 +19476,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>427</v>
+        <v>549</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -19119,7 +19485,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -19142,14 +19508,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>429</v>
+        <v>551</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -19157,7 +19523,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>430</v>
+        <v>552</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -19180,7 +19546,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>430</v>
+        <v>552</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -19189,7 +19555,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>431</v>
+        <v>553</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -19212,14 +19578,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>431</v>
+        <v>553</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>432</v>
+        <v>554</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -19227,7 +19593,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -19250,7 +19616,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -19259,7 +19625,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>434</v>
+        <v>556</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -19282,24 +19648,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>434</v>
+        <v>556</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>435</v>
+        <v>557</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -19322,7 +19688,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -19331,7 +19697,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>438</v>
+        <v>560</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -19354,22 +19720,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>438</v>
+        <v>560</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>439</v>
+        <v>561</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -19377,7 +19743,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -19400,7 +19766,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -19413,7 +19779,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>441</v>
+        <v>563</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -19436,32 +19802,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>441</v>
+        <v>563</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>442</v>
+        <v>564</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>443</v>
+        <v>565</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>444</v>
+        <v>566</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -19484,7 +19850,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>444</v>
+        <v>566</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -19493,7 +19859,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>445</v>
+        <v>567</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -19516,14 +19882,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>445</v>
+        <v>567</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -19531,7 +19897,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>447</v>
+        <v>569</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -19554,14 +19920,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>447</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>448</v>
+        <v>570</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -19584,12 +19950,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>448</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>449</v>
+        <v>571</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -19617,7 +19983,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>450</v>
+        <v>572</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -19644,13 +20010,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>451</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -19678,7 +20044,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>453</v>
+        <v>575</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -19790,7 +20156,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>454</v>
+        <v>576</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -19818,7 +20184,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>455</v>
+        <v>577</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -19846,7 +20212,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>456</v>
+        <v>578</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -26846,13 +27212,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:CO38"/>
+  <dimension ref="A30:EG91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:137" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>309</v>
       </c>
@@ -26860,7 +27226,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:137" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>311</v>
       </c>
@@ -26904,1206 +27270,3883 @@
         <v>312</v>
       </c>
       <c r="P31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="BK31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AH31" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="BO31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="BR31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="BY31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="CG31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="CH31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="CI31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BE31" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="BF31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="CL31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="CM31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="CN31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="CO31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="CP31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BM31" s="1" t="s">
+      <c r="CQ31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="CR31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="CS31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BP31" s="1" t="s">
+      <c r="CT31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="CU31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BR31" s="1" t="s">
+      <c r="CV31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BS31" s="1" t="s">
+      <c r="CW31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BT31" s="1" t="s">
+      <c r="CX31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="CY31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="CZ31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="DA31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="DB31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="DC31" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="DD31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="DE31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="DF31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="DG31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DM31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DN31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DO31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DP31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DQ31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DR31" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="DS31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="DT31" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="DU31" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="DV31" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="DW31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="DX31" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="DZ31" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="EA31" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="32" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="EB31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="ED31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="EE31" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="EF31" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="EG31" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:137" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" t="s">
+        <v>415</v>
+      </c>
+      <c r="G32" t="s">
+        <v>418</v>
+      </c>
+      <c r="H32" t="s">
+        <v>419</v>
+      </c>
+      <c r="I32" t="s">
+        <v>420</v>
+      </c>
+      <c r="J32" t="s">
+        <v>398</v>
+      </c>
+      <c r="K32" t="s">
+        <v>398</v>
+      </c>
+      <c r="L32" t="s">
+        <v>398</v>
+      </c>
+      <c r="M32" t="s">
+        <v>398</v>
+      </c>
+      <c r="N32" t="s">
+        <v>398</v>
+      </c>
+      <c r="O32" t="s">
+        <v>398</v>
+      </c>
+      <c r="P32" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>398</v>
+      </c>
+      <c r="R32" t="s">
+        <v>398</v>
+      </c>
+      <c r="S32" t="s">
+        <v>398</v>
+      </c>
+      <c r="T32" t="s">
+        <v>398</v>
+      </c>
+      <c r="U32" t="s">
+        <v>398</v>
+      </c>
+      <c r="V32" t="s">
+        <v>398</v>
+      </c>
+      <c r="W32" t="s">
+        <v>398</v>
+      </c>
+      <c r="X32" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>437</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>440</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>445</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>439</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>440</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>445</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>449</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>450</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>440</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>445</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>453</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>439</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>440</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>456</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>457</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>418</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>439</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>440</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>445</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>418</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>438</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>440</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>445</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>418</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>440</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>445</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>418</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>438</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>439</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>440</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>445</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>418</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>438</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>439</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>440</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>445</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>418</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>439</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>440</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>418</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>398</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" t="s">
-        <v>339</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
+        <v>416</v>
+      </c>
+      <c r="G33" t="s">
+        <v>416</v>
+      </c>
+      <c r="H33" t="s">
+        <v>416</v>
+      </c>
+      <c r="I33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F34" t="s">
+        <v>417</v>
+      </c>
+      <c r="G34" t="s">
+        <v>417</v>
+      </c>
+      <c r="H34" t="s">
+        <v>417</v>
+      </c>
+      <c r="I34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DH34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DJ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DK34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DP34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DQ34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" t="s">
+        <v>399</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>424</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>424</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>412</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>412</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>412</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>412</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>399</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>399</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>399</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>399</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>412</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>405</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>424</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>424</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>405</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>405</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CW36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DI36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DJ36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DK36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DL36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DM36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DN36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DO36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DP36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DT36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DV36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DW36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DX36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DY36" t="s">
+        <v>412</v>
+      </c>
+      <c r="EB36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CW37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CX37" t="s">
+        <v>405</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" t="s">
+        <v>400</v>
+      </c>
+      <c r="C38" t="s">
+        <v>400</v>
+      </c>
+      <c r="D38" t="s">
+        <v>400</v>
+      </c>
+      <c r="E38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>400</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>400</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>400</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CG38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CH38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CJ38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CK38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM38" t="s">
+        <v>400</v>
+      </c>
+      <c r="EA38" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G32" t="s">
+      <c r="CG39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CJ39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CK39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CM39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" t="s">
+        <v>401</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>441</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>441</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>441</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>451</v>
+      </c>
+      <c r="CG40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CH40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CJ40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CK40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CM40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CQ40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>455</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>455</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>427</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>427</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>427</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>427</v>
+      </c>
+      <c r="DD41" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H32" t="s">
+      <c r="B42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D42" t="s">
+        <v>402</v>
+      </c>
+      <c r="E42" t="s">
+        <v>402</v>
+      </c>
+      <c r="CJ42" t="s">
+        <v>474</v>
+      </c>
+      <c r="CK42" t="s">
+        <v>474</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>474</v>
+      </c>
+      <c r="CM42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J43" t="s">
+        <v>421</v>
+      </c>
+      <c r="K43" t="s">
+        <v>421</v>
+      </c>
+      <c r="L43" t="s">
+        <v>421</v>
+      </c>
+      <c r="M43" t="s">
+        <v>421</v>
+      </c>
+      <c r="N43" t="s">
+        <v>421</v>
+      </c>
+      <c r="O43" t="s">
+        <v>421</v>
+      </c>
+      <c r="P43" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>421</v>
+      </c>
+      <c r="R43" t="s">
+        <v>421</v>
+      </c>
+      <c r="S43" t="s">
+        <v>421</v>
+      </c>
+      <c r="T43" t="s">
+        <v>421</v>
+      </c>
+      <c r="U43" t="s">
+        <v>421</v>
+      </c>
+      <c r="V43" t="s">
+        <v>421</v>
+      </c>
+      <c r="W43" t="s">
+        <v>421</v>
+      </c>
+      <c r="X43" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CJ43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CK43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CL43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CM43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CW43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J32" t="s">
-        <v>339</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="CJ44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CM44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CW44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CX44" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CG45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CH45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CJ45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CK45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CL45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CM45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="L32" t="s">
-        <v>348</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="CJ46" t="s">
+        <v>476</v>
+      </c>
+      <c r="CK46" t="s">
+        <v>476</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>476</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="N32" t="s">
+      <c r="J47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" t="s">
+        <v>422</v>
+      </c>
+      <c r="L47" t="s">
+        <v>422</v>
+      </c>
+      <c r="M47" t="s">
+        <v>422</v>
+      </c>
+      <c r="N47" t="s">
+        <v>422</v>
+      </c>
+      <c r="O47" t="s">
+        <v>422</v>
+      </c>
+      <c r="P47" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>422</v>
+      </c>
+      <c r="R47" t="s">
+        <v>422</v>
+      </c>
+      <c r="S47" t="s">
+        <v>422</v>
+      </c>
+      <c r="T47" t="s">
+        <v>422</v>
+      </c>
+      <c r="U47" t="s">
+        <v>422</v>
+      </c>
+      <c r="V47" t="s">
+        <v>422</v>
+      </c>
+      <c r="W47" t="s">
+        <v>422</v>
+      </c>
+      <c r="X47" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>422</v>
+      </c>
+      <c r="CJ47" t="s">
+        <v>477</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>477</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>477</v>
+      </c>
+      <c r="CM47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="O32" t="s">
+      <c r="B48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C48" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" t="s">
+        <v>403</v>
+      </c>
+      <c r="E48" t="s">
+        <v>403</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>454</v>
+      </c>
+      <c r="BU48" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB48" t="s">
+        <v>459</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>459</v>
+      </c>
+      <c r="CW48" t="s">
+        <v>459</v>
+      </c>
+      <c r="CX48" t="s">
+        <v>478</v>
+      </c>
+      <c r="DD48" t="s">
+        <v>479</v>
+      </c>
+      <c r="DI48" t="s">
+        <v>430</v>
+      </c>
+      <c r="DJ48" t="s">
+        <v>481</v>
+      </c>
+      <c r="DK48" t="s">
+        <v>459</v>
+      </c>
+      <c r="DL48" t="s">
+        <v>481</v>
+      </c>
+      <c r="DM48" t="s">
+        <v>481</v>
+      </c>
+      <c r="DN48" t="s">
+        <v>430</v>
+      </c>
+      <c r="DO48" t="s">
+        <v>459</v>
+      </c>
+      <c r="DP48" t="s">
+        <v>481</v>
+      </c>
+      <c r="DU48" t="s">
+        <v>459</v>
+      </c>
+      <c r="DV48" t="s">
+        <v>483</v>
+      </c>
+      <c r="DW48" t="s">
+        <v>483</v>
+      </c>
+      <c r="EC48" t="s">
+        <v>459</v>
+      </c>
+      <c r="ED48" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="P32" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>339</v>
-      </c>
-      <c r="R32" t="s">
-        <v>339</v>
-      </c>
-      <c r="S32" t="s">
-        <v>339</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="CB49" t="s">
+        <v>460</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>460</v>
+      </c>
+      <c r="CW49" t="s">
+        <v>460</v>
+      </c>
+      <c r="CX49" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>461</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="U32" t="s">
+      <c r="CB51" t="s">
+        <v>462</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="V32" t="s">
-        <v>353</v>
-      </c>
-      <c r="W32" t="s">
-        <v>354</v>
-      </c>
-      <c r="X32" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="J52" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" t="s">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" t="s">
+        <v>423</v>
+      </c>
+      <c r="N52" t="s">
+        <v>423</v>
+      </c>
+      <c r="O52" t="s">
+        <v>423</v>
+      </c>
+      <c r="P52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>423</v>
+      </c>
+      <c r="R52" t="s">
+        <v>423</v>
+      </c>
+      <c r="S52" t="s">
+        <v>423</v>
+      </c>
+      <c r="T52" t="s">
+        <v>423</v>
+      </c>
+      <c r="U52" t="s">
+        <v>423</v>
+      </c>
+      <c r="V52" t="s">
+        <v>423</v>
+      </c>
+      <c r="W52" t="s">
+        <v>423</v>
+      </c>
+      <c r="X52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>400</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>400</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>400</v>
+      </c>
+      <c r="CB52" t="s">
+        <v>423</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AG32" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="CG53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CJ53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CK53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AI32" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>357</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="BD54" t="s">
+        <v>447</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>447</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>447</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>447</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>452</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>452</v>
+      </c>
+      <c r="CG54" t="s">
+        <v>470</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AM32" t="s">
-        <v>353</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>354</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AR32" t="s">
+      <c r="CG55" t="s">
+        <v>471</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="CG56" t="s">
+        <v>405</v>
+      </c>
+      <c r="CH56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AT32" t="s">
-        <v>348</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>353</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>354</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>355</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>357</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>348</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>353</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>355</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>357</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>348</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>355</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>357</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>348</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>354</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>355</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>357</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>348</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>353</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>354</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>355</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>357</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>348</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>354</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>348</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" t="s">
-        <v>346</v>
-      </c>
-      <c r="G33" t="s">
-        <v>346</v>
-      </c>
-      <c r="H33" t="s">
-        <v>346</v>
-      </c>
-      <c r="I33" t="s">
-        <v>346</v>
-      </c>
-      <c r="K33" t="s">
-        <v>346</v>
-      </c>
-      <c r="L33" t="s">
-        <v>346</v>
-      </c>
-      <c r="M33" t="s">
-        <v>346</v>
-      </c>
-      <c r="N33" t="s">
-        <v>346</v>
-      </c>
-      <c r="O33" t="s">
-        <v>346</v>
-      </c>
-      <c r="P33" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>346</v>
-      </c>
-      <c r="R33" t="s">
-        <v>346</v>
-      </c>
-      <c r="S33" t="s">
-        <v>346</v>
-      </c>
-      <c r="T33" t="s">
-        <v>346</v>
-      </c>
-      <c r="U33" t="s">
-        <v>346</v>
-      </c>
-      <c r="V33" t="s">
-        <v>346</v>
-      </c>
-      <c r="W33" t="s">
-        <v>346</v>
-      </c>
-      <c r="X33" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX33" t="s">
+      <c r="B57" t="s">
+        <v>401</v>
+      </c>
+      <c r="C57" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" t="s">
+        <v>405</v>
+      </c>
+      <c r="E57" t="s">
+        <v>405</v>
+      </c>
+      <c r="J57" t="s">
+        <v>424</v>
+      </c>
+      <c r="K57" t="s">
+        <v>424</v>
+      </c>
+      <c r="L57" t="s">
+        <v>424</v>
+      </c>
+      <c r="M57" t="s">
+        <v>424</v>
+      </c>
+      <c r="N57" t="s">
+        <v>424</v>
+      </c>
+      <c r="O57" t="s">
+        <v>424</v>
+      </c>
+      <c r="P57" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>424</v>
+      </c>
+      <c r="R57" t="s">
+        <v>424</v>
+      </c>
+      <c r="S57" t="s">
+        <v>424</v>
+      </c>
+      <c r="T57" t="s">
+        <v>424</v>
+      </c>
+      <c r="U57" t="s">
+        <v>424</v>
+      </c>
+      <c r="V57" t="s">
+        <v>424</v>
+      </c>
+      <c r="W57" t="s">
+        <v>424</v>
+      </c>
+      <c r="X57" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>405</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>399</v>
+      </c>
+      <c r="BN57" t="s">
+        <v>399</v>
+      </c>
+      <c r="CB57" t="s">
+        <v>401</v>
+      </c>
+      <c r="CC57" t="s">
+        <v>401</v>
+      </c>
+      <c r="CG57" t="s">
+        <v>401</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>401</v>
+      </c>
+      <c r="DD57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AY33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CE33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CF33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F34" t="s">
-        <v>347</v>
-      </c>
-      <c r="G34" t="s">
-        <v>347</v>
-      </c>
-      <c r="H34" t="s">
-        <v>347</v>
-      </c>
-      <c r="I34" t="s">
-        <v>347</v>
-      </c>
-      <c r="K34" t="s">
-        <v>347</v>
-      </c>
-      <c r="L34" t="s">
-        <v>347</v>
-      </c>
-      <c r="M34" t="s">
-        <v>347</v>
-      </c>
-      <c r="N34" t="s">
-        <v>347</v>
-      </c>
-      <c r="O34" t="s">
-        <v>347</v>
-      </c>
-      <c r="P34" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>347</v>
-      </c>
-      <c r="R34" t="s">
-        <v>347</v>
-      </c>
-      <c r="S34" t="s">
-        <v>347</v>
-      </c>
-      <c r="T34" t="s">
-        <v>347</v>
-      </c>
-      <c r="U34" t="s">
-        <v>347</v>
-      </c>
-      <c r="V34" t="s">
-        <v>347</v>
-      </c>
-      <c r="W34" t="s">
-        <v>347</v>
-      </c>
-      <c r="X34" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CF34" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C36" t="s">
-        <v>340</v>
-      </c>
-      <c r="D36" t="s">
-        <v>340</v>
-      </c>
-      <c r="E36" t="s">
-        <v>340</v>
-      </c>
-      <c r="P36" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R36" t="s">
-        <v>351</v>
-      </c>
-      <c r="S36" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>340</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>344</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>351</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BS36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BY36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CD36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CG36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CH36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CI36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CJ36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CM36" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B37" t="s">
-        <v>341</v>
-      </c>
-      <c r="C37" t="s">
-        <v>341</v>
-      </c>
-      <c r="D37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E37" t="s">
-        <v>344</v>
-      </c>
-      <c r="J37" t="s">
-        <v>351</v>
-      </c>
-      <c r="P37" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>344</v>
-      </c>
-      <c r="R37" t="s">
-        <v>341</v>
-      </c>
-      <c r="S37" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>340</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>343</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>343</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BY37" t="s">
-        <v>344</v>
-      </c>
-      <c r="CL37" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" t="s">
-        <v>342</v>
-      </c>
-      <c r="D38" t="s">
-        <v>342</v>
-      </c>
-      <c r="E38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AX38" t="s">
+      <c r="B58" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" t="s">
+        <v>404</v>
+      </c>
+      <c r="D58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E58" t="s">
+        <v>404</v>
+      </c>
+      <c r="CG58" t="s">
+        <v>472</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>472</v>
+      </c>
+      <c r="DZ58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BS38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CD38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CE38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CH38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CO38" t="s">
-        <v>365</v>
+      <c r="BT59" t="s">
+        <v>455</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>455</v>
+      </c>
+      <c r="CG59" t="s">
+        <v>455</v>
+      </c>
+      <c r="CH59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="CG60" t="s">
+        <v>473</v>
+      </c>
+      <c r="CH60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" t="s">
+        <v>405</v>
+      </c>
+      <c r="C61" t="s">
+        <v>405</v>
+      </c>
+      <c r="D61" t="s">
+        <v>405</v>
+      </c>
+      <c r="E61" t="s">
+        <v>405</v>
+      </c>
+      <c r="J61" t="s">
+        <v>405</v>
+      </c>
+      <c r="K61" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" t="s">
+        <v>405</v>
+      </c>
+      <c r="M61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N61" t="s">
+        <v>405</v>
+      </c>
+      <c r="O61" t="s">
+        <v>405</v>
+      </c>
+      <c r="P61" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>405</v>
+      </c>
+      <c r="R61" t="s">
+        <v>405</v>
+      </c>
+      <c r="S61" t="s">
+        <v>405</v>
+      </c>
+      <c r="T61" t="s">
+        <v>405</v>
+      </c>
+      <c r="U61" t="s">
+        <v>405</v>
+      </c>
+      <c r="V61" t="s">
+        <v>405</v>
+      </c>
+      <c r="W61" t="s">
+        <v>405</v>
+      </c>
+      <c r="X61" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>405</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>435</v>
+      </c>
+      <c r="CG61" t="s">
+        <v>405</v>
+      </c>
+      <c r="CH61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" t="s">
+        <v>406</v>
+      </c>
+      <c r="D62" t="s">
+        <v>406</v>
+      </c>
+      <c r="E62" t="s">
+        <v>406</v>
+      </c>
+      <c r="J62" t="s">
+        <v>406</v>
+      </c>
+      <c r="K62" t="s">
+        <v>406</v>
+      </c>
+      <c r="L62" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" t="s">
+        <v>433</v>
+      </c>
+      <c r="N62" t="s">
+        <v>434</v>
+      </c>
+      <c r="O62" t="s">
+        <v>406</v>
+      </c>
+      <c r="P62" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>406</v>
+      </c>
+      <c r="R62" t="s">
+        <v>406</v>
+      </c>
+      <c r="S62" t="s">
+        <v>433</v>
+      </c>
+      <c r="T62" t="s">
+        <v>406</v>
+      </c>
+      <c r="U62" t="s">
+        <v>434</v>
+      </c>
+      <c r="V62" t="s">
+        <v>434</v>
+      </c>
+      <c r="W62" t="s">
+        <v>406</v>
+      </c>
+      <c r="X62" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>434</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>434</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>433</v>
+      </c>
+      <c r="CB62" t="s">
+        <v>463</v>
+      </c>
+      <c r="CC62" t="s">
+        <v>463</v>
+      </c>
+      <c r="CG62" t="s">
+        <v>406</v>
+      </c>
+      <c r="CH62" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>427</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>424</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>424</v>
+      </c>
+      <c r="EA64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="CB65" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC65" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J66" t="s">
+        <v>425</v>
+      </c>
+      <c r="K66" t="s">
+        <v>425</v>
+      </c>
+      <c r="L66" t="s">
+        <v>425</v>
+      </c>
+      <c r="M66" t="s">
+        <v>425</v>
+      </c>
+      <c r="N66" t="s">
+        <v>425</v>
+      </c>
+      <c r="O66" t="s">
+        <v>425</v>
+      </c>
+      <c r="P66" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>425</v>
+      </c>
+      <c r="R66" t="s">
+        <v>425</v>
+      </c>
+      <c r="S66" t="s">
+        <v>425</v>
+      </c>
+      <c r="T66" t="s">
+        <v>425</v>
+      </c>
+      <c r="U66" t="s">
+        <v>425</v>
+      </c>
+      <c r="V66" t="s">
+        <v>425</v>
+      </c>
+      <c r="W66" t="s">
+        <v>425</v>
+      </c>
+      <c r="X66" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>442</v>
+      </c>
+      <c r="CB66" t="s">
+        <v>465</v>
+      </c>
+      <c r="CC66" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW67" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>442</v>
+      </c>
+      <c r="CB67" t="s">
+        <v>442</v>
+      </c>
+      <c r="CC67" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="CB68" t="s">
+        <v>466</v>
+      </c>
+      <c r="CC68" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J69" t="s">
+        <v>426</v>
+      </c>
+      <c r="K69" t="s">
+        <v>426</v>
+      </c>
+      <c r="L69" t="s">
+        <v>426</v>
+      </c>
+      <c r="M69" t="s">
+        <v>426</v>
+      </c>
+      <c r="N69" t="s">
+        <v>426</v>
+      </c>
+      <c r="O69" t="s">
+        <v>426</v>
+      </c>
+      <c r="P69" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>426</v>
+      </c>
+      <c r="R69" t="s">
+        <v>426</v>
+      </c>
+      <c r="S69" t="s">
+        <v>426</v>
+      </c>
+      <c r="T69" t="s">
+        <v>426</v>
+      </c>
+      <c r="U69" t="s">
+        <v>426</v>
+      </c>
+      <c r="V69" t="s">
+        <v>426</v>
+      </c>
+      <c r="W69" t="s">
+        <v>426</v>
+      </c>
+      <c r="X69" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J70" t="s">
+        <v>427</v>
+      </c>
+      <c r="K70" t="s">
+        <v>427</v>
+      </c>
+      <c r="L70" t="s">
+        <v>427</v>
+      </c>
+      <c r="M70" t="s">
+        <v>427</v>
+      </c>
+      <c r="N70" t="s">
+        <v>427</v>
+      </c>
+      <c r="O70" t="s">
+        <v>427</v>
+      </c>
+      <c r="P70" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>427</v>
+      </c>
+      <c r="R70" t="s">
+        <v>427</v>
+      </c>
+      <c r="S70" t="s">
+        <v>427</v>
+      </c>
+      <c r="T70" t="s">
+        <v>427</v>
+      </c>
+      <c r="U70" t="s">
+        <v>427</v>
+      </c>
+      <c r="V70" t="s">
+        <v>427</v>
+      </c>
+      <c r="W70" t="s">
+        <v>427</v>
+      </c>
+      <c r="X70" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>443</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>443</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>443</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J72" t="s">
+        <v>428</v>
+      </c>
+      <c r="K72" t="s">
+        <v>432</v>
+      </c>
+      <c r="L72" t="s">
+        <v>428</v>
+      </c>
+      <c r="M72" t="s">
+        <v>432</v>
+      </c>
+      <c r="N72" t="s">
+        <v>432</v>
+      </c>
+      <c r="O72" t="s">
+        <v>428</v>
+      </c>
+      <c r="P72" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>428</v>
+      </c>
+      <c r="R72" t="s">
+        <v>432</v>
+      </c>
+      <c r="S72" t="s">
+        <v>428</v>
+      </c>
+      <c r="T72" t="s">
+        <v>432</v>
+      </c>
+      <c r="U72" t="s">
+        <v>428</v>
+      </c>
+      <c r="V72" t="s">
+        <v>428</v>
+      </c>
+      <c r="W72" t="s">
+        <v>428</v>
+      </c>
+      <c r="X72" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>412</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>412</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>412</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>444</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>444</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>411</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>411</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>411</v>
+      </c>
+      <c r="BG75" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>448</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>448</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>448</v>
+      </c>
+      <c r="BG76" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" t="s">
+        <v>407</v>
+      </c>
+      <c r="C77" t="s">
+        <v>407</v>
+      </c>
+      <c r="D77" t="s">
+        <v>407</v>
+      </c>
+      <c r="E77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" t="s">
+        <v>408</v>
+      </c>
+      <c r="E78" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B79" t="s">
+        <v>409</v>
+      </c>
+      <c r="C79" t="s">
+        <v>409</v>
+      </c>
+      <c r="D79" t="s">
+        <v>409</v>
+      </c>
+      <c r="E79" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" t="s">
+        <v>410</v>
+      </c>
+      <c r="C80" t="s">
+        <v>410</v>
+      </c>
+      <c r="D80" t="s">
+        <v>410</v>
+      </c>
+      <c r="E80" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J81" t="s">
+        <v>412</v>
+      </c>
+      <c r="K81" t="s">
+        <v>412</v>
+      </c>
+      <c r="L81" t="s">
+        <v>412</v>
+      </c>
+      <c r="M81" t="s">
+        <v>412</v>
+      </c>
+      <c r="N81" t="s">
+        <v>412</v>
+      </c>
+      <c r="O81" t="s">
+        <v>412</v>
+      </c>
+      <c r="P81" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>412</v>
+      </c>
+      <c r="R81" t="s">
+        <v>412</v>
+      </c>
+      <c r="S81" t="s">
+        <v>412</v>
+      </c>
+      <c r="T81" t="s">
+        <v>412</v>
+      </c>
+      <c r="U81" t="s">
+        <v>412</v>
+      </c>
+      <c r="V81" t="s">
+        <v>412</v>
+      </c>
+      <c r="W81" t="s">
+        <v>412</v>
+      </c>
+      <c r="X81" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C82" t="s">
+        <v>411</v>
+      </c>
+      <c r="D82" t="s">
+        <v>411</v>
+      </c>
+      <c r="E82" t="s">
+        <v>411</v>
+      </c>
+      <c r="J82" t="s">
+        <v>429</v>
+      </c>
+      <c r="K82" t="s">
+        <v>429</v>
+      </c>
+      <c r="L82" t="s">
+        <v>429</v>
+      </c>
+      <c r="M82" t="s">
+        <v>429</v>
+      </c>
+      <c r="N82" t="s">
+        <v>429</v>
+      </c>
+      <c r="O82" t="s">
+        <v>429</v>
+      </c>
+      <c r="P82" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>429</v>
+      </c>
+      <c r="R82" t="s">
+        <v>429</v>
+      </c>
+      <c r="S82" t="s">
+        <v>429</v>
+      </c>
+      <c r="T82" t="s">
+        <v>429</v>
+      </c>
+      <c r="U82" t="s">
+        <v>429</v>
+      </c>
+      <c r="V82" t="s">
+        <v>429</v>
+      </c>
+      <c r="W82" t="s">
+        <v>429</v>
+      </c>
+      <c r="X82" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J83" t="s">
+        <v>430</v>
+      </c>
+      <c r="K83" t="s">
+        <v>430</v>
+      </c>
+      <c r="L83" t="s">
+        <v>430</v>
+      </c>
+      <c r="M83" t="s">
+        <v>430</v>
+      </c>
+      <c r="N83" t="s">
+        <v>430</v>
+      </c>
+      <c r="O83" t="s">
+        <v>430</v>
+      </c>
+      <c r="P83" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>430</v>
+      </c>
+      <c r="R83" t="s">
+        <v>430</v>
+      </c>
+      <c r="S83" t="s">
+        <v>430</v>
+      </c>
+      <c r="T83" t="s">
+        <v>430</v>
+      </c>
+      <c r="U83" t="s">
+        <v>430</v>
+      </c>
+      <c r="V83" t="s">
+        <v>430</v>
+      </c>
+      <c r="W83" t="s">
+        <v>430</v>
+      </c>
+      <c r="X83" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J84" t="s">
+        <v>431</v>
+      </c>
+      <c r="K84" t="s">
+        <v>431</v>
+      </c>
+      <c r="L84" t="s">
+        <v>431</v>
+      </c>
+      <c r="M84" t="s">
+        <v>431</v>
+      </c>
+      <c r="N84" t="s">
+        <v>431</v>
+      </c>
+      <c r="O84" t="s">
+        <v>431</v>
+      </c>
+      <c r="P84" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>431</v>
+      </c>
+      <c r="R84" t="s">
+        <v>431</v>
+      </c>
+      <c r="S84" t="s">
+        <v>431</v>
+      </c>
+      <c r="T84" t="s">
+        <v>431</v>
+      </c>
+      <c r="U84" t="s">
+        <v>431</v>
+      </c>
+      <c r="V84" t="s">
+        <v>431</v>
+      </c>
+      <c r="W84" t="s">
+        <v>431</v>
+      </c>
+      <c r="X84" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B85" t="s">
+        <v>412</v>
+      </c>
+      <c r="C85" t="s">
+        <v>412</v>
+      </c>
+      <c r="D85" t="s">
+        <v>412</v>
+      </c>
+      <c r="E85" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B86" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" t="s">
+        <v>413</v>
+      </c>
+      <c r="D86" t="s">
+        <v>413</v>
+      </c>
+      <c r="E86" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" t="s">
+        <v>414</v>
+      </c>
+      <c r="D87" t="s">
+        <v>414</v>
+      </c>
+      <c r="E87" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="ED88" t="s">
+        <v>486</v>
+      </c>
+      <c r="EE88" t="s">
+        <v>486</v>
+      </c>
+      <c r="EF88" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS89" t="s">
+        <v>448</v>
+      </c>
+      <c r="EG89" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="DI90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DJ90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DK90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DL90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DM90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DN90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DO90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DP90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="DR91" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/69758.xlsx
+++ b/icd_files/69758.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B8B1D-5331-40B4-AF0A-E391B8BB2C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2060299-24CF-4FC7-8E9E-00C2A95DD6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="579">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -996,6 +996,12 @@
     <t>02-20</t>
   </si>
   <si>
+    <t>02-22</t>
+  </si>
+  <si>
+    <t>02-23</t>
+  </si>
+  <si>
     <t>02-24</t>
   </si>
   <si>
@@ -1011,6 +1017,9 @@
     <t>03-02</t>
   </si>
   <si>
+    <t>03-03</t>
+  </si>
+  <si>
     <t>03-04</t>
   </si>
   <si>
@@ -1023,6 +1032,15 @@
     <t>03-09</t>
   </si>
   <si>
+    <t>03-10</t>
+  </si>
+  <si>
+    <t>03-11</t>
+  </si>
+  <si>
+    <t>03-17</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -1035,12 +1053,171 @@
     <t>5% Dextrose</t>
   </si>
   <si>
+    <t>Insulin Human Regular</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
   </si>
   <si>
+    <t>Meropenem</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Prochlorperazine</t>
+  </si>
+  <si>
+    <t>Lidocaine Viscous 2%</t>
+  </si>
+  <si>
+    <t>Mupirocin Nasal Ointment 2%</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
     <t>Insulin</t>
   </si>
   <si>
+    <t>Maalox/Diphenhydramine/Lidocaine</t>
+  </si>
+  <si>
+    <t>Potassium Chloride Replacement (Oncology)</t>
+  </si>
+  <si>
+    <t>Heparin Flush (10 units/ml)</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Voriconazole</t>
+  </si>
+  <si>
+    <t>Piperacillin-Tazobactam</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Sterile Water</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Acetylcysteine (IV)</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Calcium Replacement (Oncology)</t>
+  </si>
+  <si>
+    <t>Syringe (Chemo)</t>
+  </si>
+  <si>
+    <t>Cytarabine</t>
+  </si>
+  <si>
+    <t>sodium bic</t>
+  </si>
+  <si>
+    <t>Hydroxyurea Suspension</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Levofloxacin</t>
+  </si>
+  <si>
+    <t>Micafungin</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OxycoDONE (Immediate Release) </t>
+  </si>
+  <si>
+    <t>Azithromycin</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
+    <t>Sodium Bicarbonate</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>DAUNOrubicin</t>
+  </si>
+  <si>
+    <t>1/2 NS</t>
+  </si>
+  <si>
+    <t>Hydroxyurea</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>GlyBURIDE</t>
+  </si>
+  <si>
+    <t>Lidocaine 2%</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>Gelclair</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
@@ -1050,15 +1227,48 @@
     <t>100 BAG</t>
   </si>
   <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
     <t>12 VIAL</t>
   </si>
   <si>
-    <t>1000 BAG</t>
+    <t>12.5 TAB</t>
   </si>
   <si>
     <t>100 mL</t>
   </si>
   <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>300 TAB</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>3000 SYR</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
     <t>04:56</t>
   </si>
   <si>
@@ -1077,9 +1287,54 @@
     <t>20:17</t>
   </si>
   <si>
+    <t>4-8 VIAL</t>
+  </si>
+  <si>
+    <t>0.5-2 mL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
     <t>500 mL</t>
   </si>
   <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>36 mL</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>2000 SYR</t>
+  </si>
+  <si>
+    <t>50 VIAL</t>
+  </si>
+  <si>
+    <t>30 mL</t>
+  </si>
+  <si>
+    <t>180 mL</t>
+  </si>
+  <si>
+    <t>1000 SYR</t>
+  </si>
+  <si>
+    <t>60 PKT</t>
+  </si>
+  <si>
+    <t>40-60 BAG</t>
+  </si>
+  <si>
+    <t>50-150 mL</t>
+  </si>
+  <si>
+    <t>50-100 mL</t>
+  </si>
+  <si>
     <t>04:27</t>
   </si>
   <si>
@@ -1092,7 +1347,16 @@
     <t>20:00</t>
   </si>
   <si>
-    <t>1000 mL</t>
+    <t>1500 VIAL</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>50 SYR</t>
+  </si>
+  <si>
+    <t>750 BAG</t>
   </si>
   <si>
     <t>04:00</t>
@@ -1101,15 +1365,33 @@
     <t>08:30</t>
   </si>
   <si>
+    <t>4.5 VIAL</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
     <t>08:21</t>
   </si>
   <si>
     <t>16:39</t>
   </si>
   <si>
+    <t>1250 VIAL</t>
+  </si>
+  <si>
+    <t>4.5 BAG</t>
+  </si>
+  <si>
     <t>07:00</t>
   </si>
   <si>
+    <t>12 mL</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
     <t>00:42</t>
   </si>
   <si>
@@ -1120,6 +1402,90 @@
   </si>
   <si>
     <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>15-30 BTL</t>
+  </si>
+  <si>
+    <t>60 TAB</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>60 mL</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>2-4 BAG</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>500 VIAL</t>
+  </si>
+  <si>
+    <t>20 UDCUP</t>
+  </si>
+  <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
+    <t>2.25 BAG</t>
+  </si>
+  <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>975 SUPP</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
+    <t>0.5-1 mL</t>
+  </si>
+  <si>
+    <t>7 mL</t>
+  </si>
+  <si>
+    <t>25 mL</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>30 VIAL</t>
+  </si>
+  <si>
+    <t>15 PKT</t>
+  </si>
+  <si>
+    <t>15 VIAL</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>2.5 TAB</t>
+  </si>
+  <si>
+    <t>1.25 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -5192,7 +5558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000000-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6832,7 +7198,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000001-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8472,7 +8838,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000002-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10301,7 +10667,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000003-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12121,7 +12487,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000004-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13485,7 +13851,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000005-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14475,7 +14841,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000006-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15465,7 +15831,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000007-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16527,7 +16893,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7A36-45D6-9FB4-A4BCCA04154C}"/>
+              <c16:uniqueId val="{00000008-28B8-414B-A019-04CA8C6FA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16970,7 +17336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896443D5-4FED-48A6-9B59-9805AD75B93E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E5B567-2017-4369-AB3E-73B13757FC8D}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -16995,7 +17361,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>366</v>
+        <v>488</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -17008,7 +17374,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>367</v>
+        <v>489</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -17021,7 +17387,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>368</v>
+        <v>490</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -17034,7 +17400,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>369</v>
+        <v>491</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -17047,27 +17413,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>370</v>
+        <v>492</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>371</v>
+        <v>493</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>372</v>
+        <v>494</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>373</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>374</v>
+        <v>496</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -17095,7 +17461,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>375</v>
+        <v>497</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -17123,11 +17489,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>376</v>
+        <v>498</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -17150,7 +17516,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17187,7 +17553,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -17210,14 +17576,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>378</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -17240,14 +17606,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -17270,14 +17636,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>380</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -17300,14 +17666,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>381</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>382</v>
+        <v>504</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -17330,16 +17696,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>382</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>383</v>
+        <v>505</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -17362,14 +17728,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -17392,10 +17758,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -17403,7 +17769,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>387</v>
+        <v>509</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -17415,7 +17781,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>388</v>
+        <v>510</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -17438,7 +17804,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>388</v>
+        <v>510</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -17454,11 +17820,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>389</v>
+        <v>511</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -17481,7 +17847,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>390</v>
+        <v>512</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -17499,7 +17865,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -17522,7 +17888,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>391</v>
+        <v>513</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -17541,7 +17907,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>392</v>
+        <v>514</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -17564,10 +17930,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>392</v>
+        <v>514</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>393</v>
+        <v>515</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -17585,7 +17951,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>394</v>
+        <v>516</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -17608,52 +17974,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>394</v>
+        <v>516</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>396</v>
+        <v>518</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>397</v>
+        <v>519</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>398</v>
+        <v>520</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>399</v>
+        <v>521</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>407</v>
+        <v>529</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -17676,53 +18042,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>415</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -17745,43 +18111,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -17789,7 +18155,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>396</v>
+        <v>518</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -17812,43 +18178,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>396</v>
+        <v>518</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -17856,7 +18222,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>397</v>
+        <v>519</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -17879,43 +18245,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>397</v>
+        <v>519</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -17923,7 +18289,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>398</v>
+        <v>520</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -17946,43 +18312,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>398</v>
+        <v>520</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -17990,7 +18356,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>399</v>
+        <v>521</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -18013,43 +18379,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>399</v>
+        <v>521</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -18057,7 +18423,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -18080,43 +18446,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -18124,7 +18490,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -18147,43 +18513,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -18191,7 +18557,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -18214,43 +18580,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -18258,7 +18624,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -18281,43 +18647,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -18325,7 +18691,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -18348,43 +18714,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -18392,7 +18758,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -18415,43 +18781,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -18459,7 +18825,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -18482,7 +18848,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -18495,10 +18861,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>410</v>
+        <v>532</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>409</v>
+        <v>531</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -18506,7 +18872,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -18529,14 +18895,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>417</v>
+        <v>539</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -18551,7 +18917,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -18574,7 +18940,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -18594,7 +18960,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>419</v>
+        <v>541</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -18617,7 +18983,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>419</v>
+        <v>541</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -18637,7 +19003,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -18660,7 +19026,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -18678,11 +19044,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>421</v>
+        <v>543</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>422</v>
+        <v>544</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -18705,14 +19071,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>422</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -18735,14 +19101,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -18765,14 +19131,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>402</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -18795,14 +19161,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -18825,14 +19191,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -18855,14 +19221,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -18885,10 +19251,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>423</v>
+        <v>545</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -18905,7 +19271,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -18928,7 +19294,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -18946,7 +19312,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -18969,7 +19335,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -18987,7 +19353,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>419</v>
+        <v>541</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -19010,14 +19376,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>419</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -19040,14 +19406,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>420</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>424</v>
+        <v>546</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -19070,24 +19436,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>424</v>
+        <v>546</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>425</v>
+        <v>547</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>426</v>
+        <v>548</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>427</v>
+        <v>549</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -19110,7 +19476,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>427</v>
+        <v>549</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -19119,7 +19485,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -19142,14 +19508,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>428</v>
+        <v>550</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>429</v>
+        <v>551</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -19157,7 +19523,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>430</v>
+        <v>552</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -19180,7 +19546,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>430</v>
+        <v>552</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -19189,7 +19555,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>431</v>
+        <v>553</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -19212,14 +19578,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>431</v>
+        <v>553</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>432</v>
+        <v>554</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -19227,7 +19593,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -19250,7 +19616,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -19259,7 +19625,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>434</v>
+        <v>556</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -19282,24 +19648,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>434</v>
+        <v>556</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>435</v>
+        <v>557</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -19322,7 +19688,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -19331,7 +19697,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>438</v>
+        <v>560</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -19354,22 +19720,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>438</v>
+        <v>560</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>439</v>
+        <v>561</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -19377,7 +19743,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -19400,7 +19766,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -19413,7 +19779,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>441</v>
+        <v>563</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -19436,32 +19802,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>441</v>
+        <v>563</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>442</v>
+        <v>564</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>443</v>
+        <v>565</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>444</v>
+        <v>566</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -19484,7 +19850,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>444</v>
+        <v>566</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -19493,7 +19859,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>445</v>
+        <v>567</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -19516,14 +19882,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>445</v>
+        <v>567</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -19531,7 +19897,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>447</v>
+        <v>569</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -19554,14 +19920,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>447</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>448</v>
+        <v>570</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -19584,12 +19950,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>448</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>449</v>
+        <v>571</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -19617,7 +19983,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>450</v>
+        <v>572</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -19644,13 +20010,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>451</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -19678,7 +20044,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>453</v>
+        <v>575</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -19790,7 +20156,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>454</v>
+        <v>576</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -19818,7 +20184,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>455</v>
+        <v>577</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -19846,7 +20212,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>456</v>
+        <v>578</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -26846,13 +27212,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:CO38"/>
+  <dimension ref="A30:EG91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:137" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>309</v>
       </c>
@@ -26860,7 +27226,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:137" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>311</v>
       </c>
@@ -26904,1206 +27270,3883 @@
         <v>312</v>
       </c>
       <c r="P31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="BK31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AH31" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="BO31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="BR31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="BY31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="CG31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="CH31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="CI31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BE31" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="BF31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="CL31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="CM31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="CN31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="CO31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="CP31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BM31" s="1" t="s">
+      <c r="CQ31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="CR31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="CS31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BP31" s="1" t="s">
+      <c r="CT31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="CU31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BR31" s="1" t="s">
+      <c r="CV31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BS31" s="1" t="s">
+      <c r="CW31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BT31" s="1" t="s">
+      <c r="CX31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="CY31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="CZ31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="DA31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="DB31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="DC31" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="DD31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="DE31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="DF31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="DG31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DM31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DN31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DO31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DP31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DQ31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DR31" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="DS31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="DT31" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="DU31" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="DV31" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="DW31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="DX31" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="DZ31" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="EA31" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="32" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="EB31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="ED31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="EE31" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="EF31" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="EG31" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:137" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" t="s">
+        <v>415</v>
+      </c>
+      <c r="G32" t="s">
+        <v>418</v>
+      </c>
+      <c r="H32" t="s">
+        <v>419</v>
+      </c>
+      <c r="I32" t="s">
+        <v>420</v>
+      </c>
+      <c r="J32" t="s">
+        <v>398</v>
+      </c>
+      <c r="K32" t="s">
+        <v>398</v>
+      </c>
+      <c r="L32" t="s">
+        <v>398</v>
+      </c>
+      <c r="M32" t="s">
+        <v>398</v>
+      </c>
+      <c r="N32" t="s">
+        <v>398</v>
+      </c>
+      <c r="O32" t="s">
+        <v>398</v>
+      </c>
+      <c r="P32" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>398</v>
+      </c>
+      <c r="R32" t="s">
+        <v>398</v>
+      </c>
+      <c r="S32" t="s">
+        <v>398</v>
+      </c>
+      <c r="T32" t="s">
+        <v>398</v>
+      </c>
+      <c r="U32" t="s">
+        <v>398</v>
+      </c>
+      <c r="V32" t="s">
+        <v>398</v>
+      </c>
+      <c r="W32" t="s">
+        <v>398</v>
+      </c>
+      <c r="X32" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>437</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>440</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>445</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>439</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>440</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>445</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>449</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>450</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>440</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>445</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>453</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>439</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>440</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>398</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>456</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>457</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>418</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>438</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>439</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>440</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>445</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>418</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>438</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>440</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>445</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>418</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>440</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>445</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>418</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>438</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>439</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>440</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>398</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>445</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>418</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>438</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>439</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>440</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>445</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>418</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>439</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>440</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>418</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>398</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>398</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" t="s">
-        <v>339</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
+        <v>416</v>
+      </c>
+      <c r="G33" t="s">
+        <v>416</v>
+      </c>
+      <c r="H33" t="s">
+        <v>416</v>
+      </c>
+      <c r="I33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>416</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>458</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>416</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F34" t="s">
+        <v>417</v>
+      </c>
+      <c r="G34" t="s">
+        <v>417</v>
+      </c>
+      <c r="H34" t="s">
+        <v>417</v>
+      </c>
+      <c r="I34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>417</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>417</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DH34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DJ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DK34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DP34" t="s">
+        <v>417</v>
+      </c>
+      <c r="DQ34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" t="s">
+        <v>399</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>424</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>424</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>412</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>412</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>412</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>412</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>399</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>399</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>399</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>399</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>412</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>405</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>424</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>424</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>405</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>405</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CW36" t="s">
+        <v>412</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DI36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DJ36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DK36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DL36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DM36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DN36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DO36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DP36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DT36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DU36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DV36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DW36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DX36" t="s">
+        <v>412</v>
+      </c>
+      <c r="DY36" t="s">
+        <v>412</v>
+      </c>
+      <c r="EB36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CW37" t="s">
+        <v>405</v>
+      </c>
+      <c r="CX37" t="s">
+        <v>405</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" t="s">
+        <v>400</v>
+      </c>
+      <c r="C38" t="s">
+        <v>400</v>
+      </c>
+      <c r="D38" t="s">
+        <v>400</v>
+      </c>
+      <c r="E38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>400</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>400</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>400</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CG38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CH38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CJ38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CK38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>400</v>
+      </c>
+      <c r="CM38" t="s">
+        <v>400</v>
+      </c>
+      <c r="EA38" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G32" t="s">
+      <c r="CG39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CJ39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CK39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CM39" t="s">
+        <v>467</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" t="s">
+        <v>401</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>441</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>441</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>441</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>451</v>
+      </c>
+      <c r="CG40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CH40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CJ40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CK40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CM40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CQ40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>455</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>455</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>427</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>427</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>427</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>427</v>
+      </c>
+      <c r="DD41" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H32" t="s">
+      <c r="B42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D42" t="s">
+        <v>402</v>
+      </c>
+      <c r="E42" t="s">
+        <v>402</v>
+      </c>
+      <c r="CJ42" t="s">
+        <v>474</v>
+      </c>
+      <c r="CK42" t="s">
+        <v>474</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>474</v>
+      </c>
+      <c r="CM42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J43" t="s">
+        <v>421</v>
+      </c>
+      <c r="K43" t="s">
+        <v>421</v>
+      </c>
+      <c r="L43" t="s">
+        <v>421</v>
+      </c>
+      <c r="M43" t="s">
+        <v>421</v>
+      </c>
+      <c r="N43" t="s">
+        <v>421</v>
+      </c>
+      <c r="O43" t="s">
+        <v>421</v>
+      </c>
+      <c r="P43" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>421</v>
+      </c>
+      <c r="R43" t="s">
+        <v>421</v>
+      </c>
+      <c r="S43" t="s">
+        <v>421</v>
+      </c>
+      <c r="T43" t="s">
+        <v>421</v>
+      </c>
+      <c r="U43" t="s">
+        <v>421</v>
+      </c>
+      <c r="V43" t="s">
+        <v>421</v>
+      </c>
+      <c r="W43" t="s">
+        <v>421</v>
+      </c>
+      <c r="X43" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CJ43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CK43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CL43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CM43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CW43" t="s">
+        <v>421</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J32" t="s">
-        <v>339</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="CJ44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CM44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CW44" t="s">
+        <v>475</v>
+      </c>
+      <c r="CX44" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CG45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CH45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CJ45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CK45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CL45" t="s">
+        <v>468</v>
+      </c>
+      <c r="CM45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="L32" t="s">
-        <v>348</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="CJ46" t="s">
+        <v>476</v>
+      </c>
+      <c r="CK46" t="s">
+        <v>476</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>476</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="N32" t="s">
+      <c r="J47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" t="s">
+        <v>422</v>
+      </c>
+      <c r="L47" t="s">
+        <v>422</v>
+      </c>
+      <c r="M47" t="s">
+        <v>422</v>
+      </c>
+      <c r="N47" t="s">
+        <v>422</v>
+      </c>
+      <c r="O47" t="s">
+        <v>422</v>
+      </c>
+      <c r="P47" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>422</v>
+      </c>
+      <c r="R47" t="s">
+        <v>422</v>
+      </c>
+      <c r="S47" t="s">
+        <v>422</v>
+      </c>
+      <c r="T47" t="s">
+        <v>422</v>
+      </c>
+      <c r="U47" t="s">
+        <v>422</v>
+      </c>
+      <c r="V47" t="s">
+        <v>422</v>
+      </c>
+      <c r="W47" t="s">
+        <v>422</v>
+      </c>
+      <c r="X47" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>422</v>
+      </c>
+      <c r="CJ47" t="s">
+        <v>477</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>477</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>477</v>
+      </c>
+      <c r="CM47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:134" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="O32" t="s">
+      <c r="B48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C48" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" t="s">
+        <v>403</v>
+      </c>
+      <c r="E48" t="s">
+        <v>403</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>454</v>
+      </c>
+      <c r="BU48" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB48" t="s">
+        <v>459</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>459</v>
+      </c>
+      <c r="CW48" t="s">
+        <v>459</v>
+      </c>
+      <c r="CX48" t="s">
+        <v>478</v>
+      </c>
+      <c r="DD48" t="s">
+        <v>479</v>
+      </c>
+      <c r="DI48" t="s">
+        <v>430</v>
+      </c>
+      <c r="DJ48" t="s">
+        <v>481</v>
+      </c>
+      <c r="DK48" t="s">
+        <v>459</v>
+      </c>
+      <c r="DL48" t="s">
+        <v>481</v>
+      </c>
+      <c r="DM48" t="s">
+        <v>481</v>
+      </c>
+      <c r="DN48" t="s">
+        <v>430</v>
+      </c>
+      <c r="DO48" t="s">
+        <v>459</v>
+      </c>
+      <c r="DP48" t="s">
+        <v>481</v>
+      </c>
+      <c r="DU48" t="s">
+        <v>459</v>
+      </c>
+      <c r="DV48" t="s">
+        <v>483</v>
+      </c>
+      <c r="DW48" t="s">
+        <v>483</v>
+      </c>
+      <c r="EC48" t="s">
+        <v>459</v>
+      </c>
+      <c r="ED48" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="P32" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>339</v>
-      </c>
-      <c r="R32" t="s">
-        <v>339</v>
-      </c>
-      <c r="S32" t="s">
-        <v>339</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="CB49" t="s">
+        <v>460</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>460</v>
+      </c>
+      <c r="CW49" t="s">
+        <v>460</v>
+      </c>
+      <c r="CX49" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>461</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="U32" t="s">
+      <c r="CB51" t="s">
+        <v>462</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="V32" t="s">
-        <v>353</v>
-      </c>
-      <c r="W32" t="s">
-        <v>354</v>
-      </c>
-      <c r="X32" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="J52" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" t="s">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" t="s">
+        <v>423</v>
+      </c>
+      <c r="N52" t="s">
+        <v>423</v>
+      </c>
+      <c r="O52" t="s">
+        <v>423</v>
+      </c>
+      <c r="P52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>423</v>
+      </c>
+      <c r="R52" t="s">
+        <v>423</v>
+      </c>
+      <c r="S52" t="s">
+        <v>423</v>
+      </c>
+      <c r="T52" t="s">
+        <v>423</v>
+      </c>
+      <c r="U52" t="s">
+        <v>423</v>
+      </c>
+      <c r="V52" t="s">
+        <v>423</v>
+      </c>
+      <c r="W52" t="s">
+        <v>423</v>
+      </c>
+      <c r="X52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>400</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>400</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>400</v>
+      </c>
+      <c r="CB52" t="s">
+        <v>423</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AG32" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="CG53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CJ53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CK53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>469</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AI32" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>357</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="BD54" t="s">
+        <v>447</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>447</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>447</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>447</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>452</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>452</v>
+      </c>
+      <c r="CG54" t="s">
+        <v>470</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AM32" t="s">
-        <v>353</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>354</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AR32" t="s">
+      <c r="CG55" t="s">
+        <v>471</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="CG56" t="s">
+        <v>405</v>
+      </c>
+      <c r="CH56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AT32" t="s">
-        <v>348</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>353</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>354</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>355</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>339</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>357</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>348</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>353</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>355</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>357</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>348</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>355</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>357</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>348</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>354</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>355</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>357</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>348</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>353</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>354</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>355</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>339</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>357</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>348</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>354</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>348</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>339</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" t="s">
-        <v>346</v>
-      </c>
-      <c r="G33" t="s">
-        <v>346</v>
-      </c>
-      <c r="H33" t="s">
-        <v>346</v>
-      </c>
-      <c r="I33" t="s">
-        <v>346</v>
-      </c>
-      <c r="K33" t="s">
-        <v>346</v>
-      </c>
-      <c r="L33" t="s">
-        <v>346</v>
-      </c>
-      <c r="M33" t="s">
-        <v>346</v>
-      </c>
-      <c r="N33" t="s">
-        <v>346</v>
-      </c>
-      <c r="O33" t="s">
-        <v>346</v>
-      </c>
-      <c r="P33" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>346</v>
-      </c>
-      <c r="R33" t="s">
-        <v>346</v>
-      </c>
-      <c r="S33" t="s">
-        <v>346</v>
-      </c>
-      <c r="T33" t="s">
-        <v>346</v>
-      </c>
-      <c r="U33" t="s">
-        <v>346</v>
-      </c>
-      <c r="V33" t="s">
-        <v>346</v>
-      </c>
-      <c r="W33" t="s">
-        <v>346</v>
-      </c>
-      <c r="X33" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AX33" t="s">
+      <c r="B57" t="s">
+        <v>401</v>
+      </c>
+      <c r="C57" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" t="s">
+        <v>405</v>
+      </c>
+      <c r="E57" t="s">
+        <v>405</v>
+      </c>
+      <c r="J57" t="s">
+        <v>424</v>
+      </c>
+      <c r="K57" t="s">
+        <v>424</v>
+      </c>
+      <c r="L57" t="s">
+        <v>424</v>
+      </c>
+      <c r="M57" t="s">
+        <v>424</v>
+      </c>
+      <c r="N57" t="s">
+        <v>424</v>
+      </c>
+      <c r="O57" t="s">
+        <v>424</v>
+      </c>
+      <c r="P57" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>424</v>
+      </c>
+      <c r="R57" t="s">
+        <v>424</v>
+      </c>
+      <c r="S57" t="s">
+        <v>424</v>
+      </c>
+      <c r="T57" t="s">
+        <v>424</v>
+      </c>
+      <c r="U57" t="s">
+        <v>424</v>
+      </c>
+      <c r="V57" t="s">
+        <v>424</v>
+      </c>
+      <c r="W57" t="s">
+        <v>424</v>
+      </c>
+      <c r="X57" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>405</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>405</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>399</v>
+      </c>
+      <c r="BN57" t="s">
+        <v>399</v>
+      </c>
+      <c r="CB57" t="s">
+        <v>401</v>
+      </c>
+      <c r="CC57" t="s">
+        <v>401</v>
+      </c>
+      <c r="CG57" t="s">
+        <v>401</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>401</v>
+      </c>
+      <c r="DD57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AY33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>346</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CE33" t="s">
-        <v>346</v>
-      </c>
-      <c r="CF33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F34" t="s">
-        <v>347</v>
-      </c>
-      <c r="G34" t="s">
-        <v>347</v>
-      </c>
-      <c r="H34" t="s">
-        <v>347</v>
-      </c>
-      <c r="I34" t="s">
-        <v>347</v>
-      </c>
-      <c r="K34" t="s">
-        <v>347</v>
-      </c>
-      <c r="L34" t="s">
-        <v>347</v>
-      </c>
-      <c r="M34" t="s">
-        <v>347</v>
-      </c>
-      <c r="N34" t="s">
-        <v>347</v>
-      </c>
-      <c r="O34" t="s">
-        <v>347</v>
-      </c>
-      <c r="P34" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>347</v>
-      </c>
-      <c r="R34" t="s">
-        <v>347</v>
-      </c>
-      <c r="S34" t="s">
-        <v>347</v>
-      </c>
-      <c r="T34" t="s">
-        <v>347</v>
-      </c>
-      <c r="U34" t="s">
-        <v>347</v>
-      </c>
-      <c r="V34" t="s">
-        <v>347</v>
-      </c>
-      <c r="W34" t="s">
-        <v>347</v>
-      </c>
-      <c r="X34" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>347</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>347</v>
-      </c>
-      <c r="CF34" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C36" t="s">
-        <v>340</v>
-      </c>
-      <c r="D36" t="s">
-        <v>340</v>
-      </c>
-      <c r="E36" t="s">
-        <v>340</v>
-      </c>
-      <c r="P36" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>356</v>
-      </c>
-      <c r="R36" t="s">
-        <v>351</v>
-      </c>
-      <c r="S36" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>340</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>344</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>351</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BS36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BY36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CD36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CG36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CH36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CI36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CJ36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>356</v>
-      </c>
-      <c r="CM36" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B37" t="s">
-        <v>341</v>
-      </c>
-      <c r="C37" t="s">
-        <v>341</v>
-      </c>
-      <c r="D37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E37" t="s">
-        <v>344</v>
-      </c>
-      <c r="J37" t="s">
-        <v>351</v>
-      </c>
-      <c r="P37" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>344</v>
-      </c>
-      <c r="R37" t="s">
-        <v>341</v>
-      </c>
-      <c r="S37" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>340</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>343</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>343</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>341</v>
-      </c>
-      <c r="BY37" t="s">
-        <v>344</v>
-      </c>
-      <c r="CL37" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" t="s">
-        <v>342</v>
-      </c>
-      <c r="D38" t="s">
-        <v>342</v>
-      </c>
-      <c r="E38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AX38" t="s">
+      <c r="B58" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" t="s">
+        <v>404</v>
+      </c>
+      <c r="D58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E58" t="s">
+        <v>404</v>
+      </c>
+      <c r="CG58" t="s">
+        <v>472</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>472</v>
+      </c>
+      <c r="DZ58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BS38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CD38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CE38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CH38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>365</v>
-      </c>
-      <c r="CO38" t="s">
-        <v>365</v>
+      <c r="BT59" t="s">
+        <v>455</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>455</v>
+      </c>
+      <c r="CG59" t="s">
+        <v>455</v>
+      </c>
+      <c r="CH59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="CG60" t="s">
+        <v>473</v>
+      </c>
+      <c r="CH60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" t="s">
+        <v>405</v>
+      </c>
+      <c r="C61" t="s">
+        <v>405</v>
+      </c>
+      <c r="D61" t="s">
+        <v>405</v>
+      </c>
+      <c r="E61" t="s">
+        <v>405</v>
+      </c>
+      <c r="J61" t="s">
+        <v>405</v>
+      </c>
+      <c r="K61" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" t="s">
+        <v>405</v>
+      </c>
+      <c r="M61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N61" t="s">
+        <v>405</v>
+      </c>
+      <c r="O61" t="s">
+        <v>405</v>
+      </c>
+      <c r="P61" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>405</v>
+      </c>
+      <c r="R61" t="s">
+        <v>405</v>
+      </c>
+      <c r="S61" t="s">
+        <v>405</v>
+      </c>
+      <c r="T61" t="s">
+        <v>405</v>
+      </c>
+      <c r="U61" t="s">
+        <v>405</v>
+      </c>
+      <c r="V61" t="s">
+        <v>405</v>
+      </c>
+      <c r="W61" t="s">
+        <v>405</v>
+      </c>
+      <c r="X61" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>405</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>435</v>
+      </c>
+      <c r="CG61" t="s">
+        <v>405</v>
+      </c>
+      <c r="CH61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" t="s">
+        <v>406</v>
+      </c>
+      <c r="D62" t="s">
+        <v>406</v>
+      </c>
+      <c r="E62" t="s">
+        <v>406</v>
+      </c>
+      <c r="J62" t="s">
+        <v>406</v>
+      </c>
+      <c r="K62" t="s">
+        <v>406</v>
+      </c>
+      <c r="L62" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" t="s">
+        <v>433</v>
+      </c>
+      <c r="N62" t="s">
+        <v>434</v>
+      </c>
+      <c r="O62" t="s">
+        <v>406</v>
+      </c>
+      <c r="P62" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>406</v>
+      </c>
+      <c r="R62" t="s">
+        <v>406</v>
+      </c>
+      <c r="S62" t="s">
+        <v>433</v>
+      </c>
+      <c r="T62" t="s">
+        <v>406</v>
+      </c>
+      <c r="U62" t="s">
+        <v>434</v>
+      </c>
+      <c r="V62" t="s">
+        <v>434</v>
+      </c>
+      <c r="W62" t="s">
+        <v>406</v>
+      </c>
+      <c r="X62" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>434</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>434</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>433</v>
+      </c>
+      <c r="CB62" t="s">
+        <v>463</v>
+      </c>
+      <c r="CC62" t="s">
+        <v>463</v>
+      </c>
+      <c r="CG62" t="s">
+        <v>406</v>
+      </c>
+      <c r="CH62" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>427</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:131" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>424</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>424</v>
+      </c>
+      <c r="EA64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="CB65" t="s">
+        <v>464</v>
+      </c>
+      <c r="CC65" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J66" t="s">
+        <v>425</v>
+      </c>
+      <c r="K66" t="s">
+        <v>425</v>
+      </c>
+      <c r="L66" t="s">
+        <v>425</v>
+      </c>
+      <c r="M66" t="s">
+        <v>425</v>
+      </c>
+      <c r="N66" t="s">
+        <v>425</v>
+      </c>
+      <c r="O66" t="s">
+        <v>425</v>
+      </c>
+      <c r="P66" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>425</v>
+      </c>
+      <c r="R66" t="s">
+        <v>425</v>
+      </c>
+      <c r="S66" t="s">
+        <v>425</v>
+      </c>
+      <c r="T66" t="s">
+        <v>425</v>
+      </c>
+      <c r="U66" t="s">
+        <v>425</v>
+      </c>
+      <c r="V66" t="s">
+        <v>425</v>
+      </c>
+      <c r="W66" t="s">
+        <v>425</v>
+      </c>
+      <c r="X66" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>442</v>
+      </c>
+      <c r="CB66" t="s">
+        <v>465</v>
+      </c>
+      <c r="CC66" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW67" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>442</v>
+      </c>
+      <c r="CB67" t="s">
+        <v>442</v>
+      </c>
+      <c r="CC67" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="CB68" t="s">
+        <v>466</v>
+      </c>
+      <c r="CC68" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J69" t="s">
+        <v>426</v>
+      </c>
+      <c r="K69" t="s">
+        <v>426</v>
+      </c>
+      <c r="L69" t="s">
+        <v>426</v>
+      </c>
+      <c r="M69" t="s">
+        <v>426</v>
+      </c>
+      <c r="N69" t="s">
+        <v>426</v>
+      </c>
+      <c r="O69" t="s">
+        <v>426</v>
+      </c>
+      <c r="P69" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>426</v>
+      </c>
+      <c r="R69" t="s">
+        <v>426</v>
+      </c>
+      <c r="S69" t="s">
+        <v>426</v>
+      </c>
+      <c r="T69" t="s">
+        <v>426</v>
+      </c>
+      <c r="U69" t="s">
+        <v>426</v>
+      </c>
+      <c r="V69" t="s">
+        <v>426</v>
+      </c>
+      <c r="W69" t="s">
+        <v>426</v>
+      </c>
+      <c r="X69" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J70" t="s">
+        <v>427</v>
+      </c>
+      <c r="K70" t="s">
+        <v>427</v>
+      </c>
+      <c r="L70" t="s">
+        <v>427</v>
+      </c>
+      <c r="M70" t="s">
+        <v>427</v>
+      </c>
+      <c r="N70" t="s">
+        <v>427</v>
+      </c>
+      <c r="O70" t="s">
+        <v>427</v>
+      </c>
+      <c r="P70" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>427</v>
+      </c>
+      <c r="R70" t="s">
+        <v>427</v>
+      </c>
+      <c r="S70" t="s">
+        <v>427</v>
+      </c>
+      <c r="T70" t="s">
+        <v>427</v>
+      </c>
+      <c r="U70" t="s">
+        <v>427</v>
+      </c>
+      <c r="V70" t="s">
+        <v>427</v>
+      </c>
+      <c r="W70" t="s">
+        <v>427</v>
+      </c>
+      <c r="X70" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>443</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>443</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>443</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J72" t="s">
+        <v>428</v>
+      </c>
+      <c r="K72" t="s">
+        <v>432</v>
+      </c>
+      <c r="L72" t="s">
+        <v>428</v>
+      </c>
+      <c r="M72" t="s">
+        <v>432</v>
+      </c>
+      <c r="N72" t="s">
+        <v>432</v>
+      </c>
+      <c r="O72" t="s">
+        <v>428</v>
+      </c>
+      <c r="P72" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>428</v>
+      </c>
+      <c r="R72" t="s">
+        <v>432</v>
+      </c>
+      <c r="S72" t="s">
+        <v>428</v>
+      </c>
+      <c r="T72" t="s">
+        <v>432</v>
+      </c>
+      <c r="U72" t="s">
+        <v>428</v>
+      </c>
+      <c r="V72" t="s">
+        <v>428</v>
+      </c>
+      <c r="W72" t="s">
+        <v>428</v>
+      </c>
+      <c r="X72" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>412</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>412</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>412</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>444</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>444</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>411</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>411</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>411</v>
+      </c>
+      <c r="BG75" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>448</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>448</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>448</v>
+      </c>
+      <c r="BG76" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" t="s">
+        <v>407</v>
+      </c>
+      <c r="C77" t="s">
+        <v>407</v>
+      </c>
+      <c r="D77" t="s">
+        <v>407</v>
+      </c>
+      <c r="E77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" t="s">
+        <v>408</v>
+      </c>
+      <c r="E78" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B79" t="s">
+        <v>409</v>
+      </c>
+      <c r="C79" t="s">
+        <v>409</v>
+      </c>
+      <c r="D79" t="s">
+        <v>409</v>
+      </c>
+      <c r="E79" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" t="s">
+        <v>410</v>
+      </c>
+      <c r="C80" t="s">
+        <v>410</v>
+      </c>
+      <c r="D80" t="s">
+        <v>410</v>
+      </c>
+      <c r="E80" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J81" t="s">
+        <v>412</v>
+      </c>
+      <c r="K81" t="s">
+        <v>412</v>
+      </c>
+      <c r="L81" t="s">
+        <v>412</v>
+      </c>
+      <c r="M81" t="s">
+        <v>412</v>
+      </c>
+      <c r="N81" t="s">
+        <v>412</v>
+      </c>
+      <c r="O81" t="s">
+        <v>412</v>
+      </c>
+      <c r="P81" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>412</v>
+      </c>
+      <c r="R81" t="s">
+        <v>412</v>
+      </c>
+      <c r="S81" t="s">
+        <v>412</v>
+      </c>
+      <c r="T81" t="s">
+        <v>412</v>
+      </c>
+      <c r="U81" t="s">
+        <v>412</v>
+      </c>
+      <c r="V81" t="s">
+        <v>412</v>
+      </c>
+      <c r="W81" t="s">
+        <v>412</v>
+      </c>
+      <c r="X81" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C82" t="s">
+        <v>411</v>
+      </c>
+      <c r="D82" t="s">
+        <v>411</v>
+      </c>
+      <c r="E82" t="s">
+        <v>411</v>
+      </c>
+      <c r="J82" t="s">
+        <v>429</v>
+      </c>
+      <c r="K82" t="s">
+        <v>429</v>
+      </c>
+      <c r="L82" t="s">
+        <v>429</v>
+      </c>
+      <c r="M82" t="s">
+        <v>429</v>
+      </c>
+      <c r="N82" t="s">
+        <v>429</v>
+      </c>
+      <c r="O82" t="s">
+        <v>429</v>
+      </c>
+      <c r="P82" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>429</v>
+      </c>
+      <c r="R82" t="s">
+        <v>429</v>
+      </c>
+      <c r="S82" t="s">
+        <v>429</v>
+      </c>
+      <c r="T82" t="s">
+        <v>429</v>
+      </c>
+      <c r="U82" t="s">
+        <v>429</v>
+      </c>
+      <c r="V82" t="s">
+        <v>429</v>
+      </c>
+      <c r="W82" t="s">
+        <v>429</v>
+      </c>
+      <c r="X82" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>429</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J83" t="s">
+        <v>430</v>
+      </c>
+      <c r="K83" t="s">
+        <v>430</v>
+      </c>
+      <c r="L83" t="s">
+        <v>430</v>
+      </c>
+      <c r="M83" t="s">
+        <v>430</v>
+      </c>
+      <c r="N83" t="s">
+        <v>430</v>
+      </c>
+      <c r="O83" t="s">
+        <v>430</v>
+      </c>
+      <c r="P83" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>430</v>
+      </c>
+      <c r="R83" t="s">
+        <v>430</v>
+      </c>
+      <c r="S83" t="s">
+        <v>430</v>
+      </c>
+      <c r="T83" t="s">
+        <v>430</v>
+      </c>
+      <c r="U83" t="s">
+        <v>430</v>
+      </c>
+      <c r="V83" t="s">
+        <v>430</v>
+      </c>
+      <c r="W83" t="s">
+        <v>430</v>
+      </c>
+      <c r="X83" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J84" t="s">
+        <v>431</v>
+      </c>
+      <c r="K84" t="s">
+        <v>431</v>
+      </c>
+      <c r="L84" t="s">
+        <v>431</v>
+      </c>
+      <c r="M84" t="s">
+        <v>431</v>
+      </c>
+      <c r="N84" t="s">
+        <v>431</v>
+      </c>
+      <c r="O84" t="s">
+        <v>431</v>
+      </c>
+      <c r="P84" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>431</v>
+      </c>
+      <c r="R84" t="s">
+        <v>431</v>
+      </c>
+      <c r="S84" t="s">
+        <v>431</v>
+      </c>
+      <c r="T84" t="s">
+        <v>431</v>
+      </c>
+      <c r="U84" t="s">
+        <v>431</v>
+      </c>
+      <c r="V84" t="s">
+        <v>431</v>
+      </c>
+      <c r="W84" t="s">
+        <v>431</v>
+      </c>
+      <c r="X84" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>431</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B85" t="s">
+        <v>412</v>
+      </c>
+      <c r="C85" t="s">
+        <v>412</v>
+      </c>
+      <c r="D85" t="s">
+        <v>412</v>
+      </c>
+      <c r="E85" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B86" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" t="s">
+        <v>413</v>
+      </c>
+      <c r="D86" t="s">
+        <v>413</v>
+      </c>
+      <c r="E86" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" t="s">
+        <v>414</v>
+      </c>
+      <c r="D87" t="s">
+        <v>414</v>
+      </c>
+      <c r="E87" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="ED88" t="s">
+        <v>486</v>
+      </c>
+      <c r="EE88" t="s">
+        <v>486</v>
+      </c>
+      <c r="EF88" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="DS89" t="s">
+        <v>448</v>
+      </c>
+      <c r="EG89" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="DI90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DJ90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DK90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DL90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DM90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DN90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DO90" t="s">
+        <v>480</v>
+      </c>
+      <c r="DP90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="DR91" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
